--- a/기록/Data.xlsx
+++ b/기록/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\매일매일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\CS_study\기록\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633DEE36-9958-4AA9-955F-D107C0AA58B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73D7997-F3BE-4DD4-95C4-EBE493085E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="188">
   <si>
     <t>날짜</t>
   </si>
@@ -582,6 +582,14 @@
   </si>
   <si>
     <t>그래픽스</t>
+  </si>
+  <si>
+    <t>캡스톤 디자인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -696,12 +704,49 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -759,27 +804,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="9" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="11" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="12" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
@@ -805,6 +829,27 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="20% - 강조색1" xfId="1" builtinId="30"/>
@@ -821,7 +866,117 @@
     <cellStyle name="60% - 강조색2" xfId="6" builtinId="36"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="91">
+  <dxfs count="211">
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top style="dotted">
+          <color auto="1"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14990691854609822"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAFBD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -837,23 +992,120 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFAFBD5"/>
-        </patternFill>
-      </fill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFA4193D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDFB9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF6A7BA2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDFDE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFDDA94B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1E4174"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top style="dotted">
+          <color auto="1"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -908,69 +1160,6 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14990691854609822"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1008,12 +1197,189 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFA4193D"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFDFB9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF6A7BA2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDFDE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top style="dotted">
+          <color auto="1"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14990691854609822"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAFBD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF002060"/>
         </patternFill>
       </fill>
@@ -1021,11 +1387,358 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFF193E4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top style="dotted">
+          <color auto="1"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14990691854609822"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAFBD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top style="dotted">
+          <color auto="1"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14990691854609822"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAFBD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="3" tint="0.89996032593768116"/>
@@ -1035,6 +1748,182 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top style="dotted">
+          <color auto="1"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14990691854609822"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFAFBD5"/>
         </patternFill>
       </fill>
@@ -1042,6 +1931,133 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top style="dotted">
+          <color auto="1"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.14990691854609822"/>
         </patternFill>
       </fill>
@@ -1098,6 +2114,39 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFAFBD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1105,6 +2154,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1138,6 +2194,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
@@ -1152,6 +2211,128 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top style="dotted">
+          <color auto="1"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14990691854609822"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAFBD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.79998168889431442"/>
@@ -1161,6 +2342,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1210,11 +2398,186 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top style="dotted">
+          <color auto="1"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14990691854609822"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAFBD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14990691854609822"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAFBD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="3" tint="0.89996032593768116"/>
@@ -1224,252 +2587,26 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFAFBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14990691854609822"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFAFBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14990691854609822"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFAFBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14990691854609822"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14990691854609822"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1477,6 +2614,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFDDA94B"/>
+      <color rgb="FF1E4174"/>
+      <color rgb="FFFFDFB9"/>
+      <color rgb="FFA4193D"/>
+      <color rgb="FF6A7BA2"/>
+      <color rgb="FFFFDFDE"/>
+      <color rgb="FFF193E4"/>
       <color rgb="FFFAFBD5"/>
     </mruColors>
   </colors>
@@ -1878,11 +3022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:J160"/>
+  <dimension ref="A1:J158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1892,32 +3035,32 @@
     <col min="3" max="3" width="5.875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59.25" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.875" style="19" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="22.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
       <c r="I1"/>
@@ -1976,7 +3119,7 @@
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -2057,7 +3200,7 @@
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -3487,7 +4630,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>45292</v>
       </c>
@@ -3507,7 +4650,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>45292</v>
       </c>
@@ -3527,7 +4670,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>45292</v>
       </c>
@@ -3547,7 +4690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>45292</v>
       </c>
@@ -3567,7 +4710,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>45292</v>
       </c>
@@ -3587,7 +4730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>45292</v>
       </c>
@@ -3604,7 +4747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>45293</v>
       </c>
@@ -3624,7 +4767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>45293</v>
       </c>
@@ -3644,7 +4787,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>45293</v>
       </c>
@@ -3664,7 +4807,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>45293</v>
       </c>
@@ -3684,7 +4827,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>45293</v>
       </c>
@@ -3701,7 +4844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>45293</v>
       </c>
@@ -3718,7 +4861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>45293</v>
       </c>
@@ -3735,7 +4878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>45294</v>
       </c>
@@ -3755,7 +4898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>45294</v>
       </c>
@@ -3772,7 +4915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>45294</v>
       </c>
@@ -3789,7 +4932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>45294</v>
       </c>
@@ -3806,7 +4949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>45294</v>
       </c>
@@ -3823,7 +4966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>45294</v>
       </c>
@@ -3840,7 +4983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>45294</v>
       </c>
@@ -3857,7 +5000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>45294</v>
       </c>
@@ -3874,7 +5017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>45295</v>
       </c>
@@ -3894,7 +5037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>45295</v>
       </c>
@@ -3911,7 +5054,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>45295</v>
       </c>
@@ -3928,7 +5071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>45295</v>
       </c>
@@ -3945,7 +5088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>45295</v>
       </c>
@@ -3962,7 +5105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>45295</v>
       </c>
@@ -3979,7 +5122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>45295</v>
       </c>
@@ -3996,7 +5139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>45295</v>
       </c>
@@ -4013,7 +5156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>45295</v>
       </c>
@@ -4030,7 +5173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>45295</v>
       </c>
@@ -4047,7 +5190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>45296</v>
       </c>
@@ -4067,7 +5210,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>45296</v>
       </c>
@@ -4087,7 +5230,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>45296</v>
       </c>
@@ -4107,7 +5250,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>45296</v>
       </c>
@@ -4127,7 +5270,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>45296</v>
       </c>
@@ -4147,7 +5290,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>45296</v>
       </c>
@@ -4167,7 +5310,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>45296</v>
       </c>
@@ -4187,7 +5330,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>45323</v>
       </c>
@@ -4204,7 +5347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>45324</v>
       </c>
@@ -4221,7 +5364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>45324</v>
       </c>
@@ -4238,7 +5381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>45325</v>
       </c>
@@ -4258,7 +5401,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>45325</v>
       </c>
@@ -4275,7 +5418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>45326</v>
       </c>
@@ -4295,7 +5438,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>45326</v>
       </c>
@@ -4312,7 +5455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>45352</v>
       </c>
@@ -4332,7 +5475,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>45352</v>
       </c>
@@ -4352,7 +5495,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>45352</v>
       </c>
@@ -4372,7 +5515,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>45352</v>
       </c>
@@ -4389,7 +5532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>45353</v>
       </c>
@@ -4406,7 +5549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>45353</v>
       </c>
@@ -4426,7 +5569,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>45354</v>
       </c>
@@ -4446,7 +5589,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>45354</v>
       </c>
@@ -4463,7 +5606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>45355</v>
       </c>
@@ -4483,7 +5626,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>45355</v>
       </c>
@@ -4500,7 +5643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>45326</v>
       </c>
@@ -4517,7 +5660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>45326</v>
       </c>
@@ -4534,7 +5677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>45352</v>
       </c>
@@ -4551,7 +5694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>45352</v>
       </c>
@@ -4568,7 +5711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>45352</v>
       </c>
@@ -4585,7 +5728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>45353</v>
       </c>
@@ -4602,7 +5745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>45353</v>
       </c>
@@ -4619,7 +5762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>45353</v>
       </c>
@@ -4636,7 +5779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>45353</v>
       </c>
@@ -4653,7 +5796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>45353</v>
       </c>
@@ -4670,7 +5813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>45353</v>
       </c>
@@ -4687,7 +5830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>45353</v>
       </c>
@@ -4704,7 +5847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>45353</v>
       </c>
@@ -4721,7 +5864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>45353</v>
       </c>
@@ -4738,7 +5881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>45354</v>
       </c>
@@ -4755,7 +5898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>45354</v>
       </c>
@@ -4772,7 +5915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>45354</v>
       </c>
@@ -4789,7 +5932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>45354</v>
       </c>
@@ -4806,7 +5949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>45355</v>
       </c>
@@ -4823,7 +5966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>45355</v>
       </c>
@@ -4840,7 +5983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>45355</v>
       </c>
@@ -4857,7 +6000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>45355</v>
       </c>
@@ -4874,7 +6017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>45355</v>
       </c>
@@ -4891,7 +6034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>45355</v>
       </c>
@@ -4908,86 +6051,84 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" spans="1:5" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:G160" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="김다은"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G160" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="expression" dxfId="52" priority="16">
+    <cfRule type="expression" dxfId="45" priority="18">
       <formula>(RIGHT(INDEX($A:$A, ROW()), 1)="1")*1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="51" priority="6" operator="containsText" text="김신영">
+    <cfRule type="containsText" dxfId="44" priority="8" operator="containsText" text="김신영">
       <formula>NOT(ISERROR(SEARCH("김신영",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="7" operator="containsText" text="박지훈">
+    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="박지훈">
       <formula>NOT(ISERROR(SEARCH("박지훈",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="8" operator="containsText" text="김다은">
+    <cfRule type="containsText" dxfId="43" priority="10" operator="containsText" text="김다은">
       <formula>NOT(ISERROR(SEARCH("김다은",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="48" priority="20" operator="containsText" text="취준">
+    <cfRule type="containsText" dxfId="42" priority="22" operator="containsText" text="취준">
       <formula>NOT(ISERROR(SEARCH("취준",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="21" operator="containsText" text="기타">
+    <cfRule type="containsText" dxfId="41" priority="23" operator="containsText" text="기타">
       <formula>NOT(ISERROR(SEARCH("기타",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="22" operator="containsText" text="프로젝트">
+    <cfRule type="containsText" dxfId="40" priority="24" operator="containsText" text="프로젝트">
       <formula>NOT(ISERROR(SEARCH("프로젝트",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="23" operator="containsText" text="공부">
+    <cfRule type="containsText" dxfId="39" priority="25" operator="containsText" text="공부">
       <formula>NOT(ISERROR(SEARCH("공부",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="인공지능">
+    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="선형대수">
+      <formula>NOT(ISERROR(SEARCH("선형대수",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="4" operator="containsText" text="DX">
+      <formula>NOT(ISERROR(SEARCH("DX",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="5" operator="containsText" text="OS">
+      <formula>NOT(ISERROR(SEARCH("OS",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="6" operator="containsText" text="PL">
+      <formula>NOT(ISERROR(SEARCH("PL",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="7" operator="containsText" text="C++">
+      <formula>NOT(ISERROR(SEARCH("C++",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="11" operator="containsText" text="인공지능">
       <formula>NOT(ISERROR(SEARCH("인공지능",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="NextJS">
+    <cfRule type="containsText" dxfId="32" priority="12" operator="containsText" text="NextJS">
       <formula>NOT(ISERROR(SEARCH("NextJS",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="11" operator="containsText" text="지원 준비">
+    <cfRule type="containsText" dxfId="31" priority="13" operator="containsText" text="지원 준비">
       <formula>NOT(ISERROR(SEARCH("지원 준비",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text="알고리즘">
+    <cfRule type="containsText" dxfId="30" priority="14" operator="containsText" text="알고리즘">
       <formula>NOT(ISERROR(SEARCH("알고리즘",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="네트워크">
+    <cfRule type="containsText" dxfId="29" priority="15" operator="containsText" text="네트워크">
       <formula>NOT(ISERROR(SEARCH("네트워크",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="자료구조">
+    <cfRule type="containsText" dxfId="28" priority="16" operator="containsText" text="자료구조">
       <formula>NOT(ISERROR(SEARCH("자료구조",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="15" operator="containsText" text="타입스크립트">
+    <cfRule type="containsText" dxfId="27" priority="17" operator="containsText" text="타입스크립트">
       <formula>NOT(ISERROR(SEARCH("타입스크립트",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="18" operator="containsText" text="기타">
+    <cfRule type="containsText" dxfId="26" priority="20" operator="containsText" text="기타">
       <formula>NOT(ISERROR(SEARCH("기타",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="C++">
-      <formula>NOT(ISERROR(SEARCH("C++",F1)))</formula>
+    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="Computer Vision">
+      <formula>NOT(ISERROR(SEARCH("Computer Vision",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="PL">
-      <formula>NOT(ISERROR(SEARCH("PL",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="OS">
-      <formula>NOT(ISERROR(SEARCH("OS",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="2" operator="containsText" text="DX">
-      <formula>NOT(ISERROR(SEARCH("DX",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="선형대수">
-      <formula>NOT(ISERROR(SEARCH("선형대수",F1)))</formula>
+    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="Game Programming">
+      <formula>NOT(ISERROR(SEARCH("Game Programming",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -5014,14 +6155,14 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="19" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="16.625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -5051,7 +6192,7 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C2" t="s">
@@ -5071,8 +6212,11 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="5" t="s">
         <v>17</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>186</v>
       </c>
       <c r="D3" t="s">
         <v>183</v>
@@ -5088,8 +6232,11 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="6" t="s">
         <v>24</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5102,17 +6249,17 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="8" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="9" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5122,7 +6269,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="10" t="s">
         <v>150</v>
       </c>
     </row>

--- a/기록/Data.xlsx
+++ b/기록/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\CS_study\기록\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73D7997-F3BE-4DD4-95C4-EBE493085E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318BAF38-B88B-454D-A4E1-94BED849065C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="192">
   <si>
     <t>날짜</t>
   </si>
@@ -589,6 +589,21 @@
   </si>
   <si>
     <t>기타</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camera Calibration 과제 완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beginner C++ GP Tutorial4: Game Loop, Variable scope, Class, Object, velocity and seprating Logic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캡스톤 디자인</t>
+  </si>
+  <si>
+    <t>캡스톤 디자인</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -838,9 +853,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -849,6 +861,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -866,14 +881,110 @@
     <cellStyle name="60% - 강조색2" xfId="6" builtinId="36"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="211">
+  <dxfs count="159">
     <dxf>
       <font>
-        <color rgb="FFFFC000"/>
+        <color rgb="FF7B9ACC"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
+          <bgColor rgb="FFFCF6F5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14990691854609822"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAFBD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -901,6 +1012,120 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF02343F"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF0EDCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF101820"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEE715"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF4A171E"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE2B143"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFA4193D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDFB9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFDDA94B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1E4174"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF6A7BA2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDFDE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF02343F"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF0EDCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7B9ACC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCF6F5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14990691854609822"/>
@@ -993,94 +1218,6 @@
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFA4193D"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDFB9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF6A7BA2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDFDE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFDDA94B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1E4174"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1108,6 +1245,96 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF101820"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEE715"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF4A171E"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE2B143"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFA4193D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDFB9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFDDA94B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1E4174"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF6A7BA2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDFDE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7B9ACC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCF6F5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14990691854609822"/>
@@ -1200,75 +1427,6 @@
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFA4193D"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDFB9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF6A7BA2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDFDE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1296,6 +1454,108 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFF0EDCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF02343F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF101820"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEE715"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF4A171E"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE2B143"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFA4193D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDFB9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFDDA94B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1E4174"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF6A7BA2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDFDE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7B9ACC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCF6F5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14990691854609822"/>
@@ -1388,77 +1648,6 @@
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFF193E4"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1486,6 +1675,108 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFF0EDCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF02343F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFEE715"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF101820"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE2B143"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4A171E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFA4193D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDFB9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFDDA94B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1E4174"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF6A7BA2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDFDE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7B9ACC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCF6F5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14990691854609822"/>
@@ -1578,77 +1869,6 @@
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1676,6 +1896,100 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF02343F"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF0EDCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFA4193D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDFB9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFDDA94B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1E4174"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF6A7BA2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDFDE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7B9ACC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCF6F5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14990691854609822"/>
@@ -1768,77 +2082,6 @@
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1866,6 +2109,87 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFA4193D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDFB9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFDDA94B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1E4174"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF6A7BA2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDFDE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14990691854609822"/>
@@ -1958,77 +2282,6 @@
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2056,557 +2309,12 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14990691854609822"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFAFBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFFFC000"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dotted">
-          <color auto="1"/>
-        </left>
-        <right style="dotted">
-          <color auto="1"/>
-        </right>
-        <top style="dotted">
-          <color auto="1"/>
-        </top>
-        <bottom style="dotted">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14990691854609822"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFAFBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dotted">
-          <color auto="1"/>
-        </left>
-        <right style="dotted">
-          <color auto="1"/>
-        </right>
-        <top style="dotted">
-          <color auto="1"/>
-        </top>
-        <bottom style="dotted">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14990691854609822"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFAFBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14990691854609822"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFAFBD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2614,14 +2322,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF0EDCC"/>
+      <color rgb="FF02343F"/>
+      <color rgb="FFFEE715"/>
+      <color rgb="FF101820"/>
+      <color rgb="FFE2B143"/>
+      <color rgb="FF4A171E"/>
+      <color rgb="FF7B9ACC"/>
+      <color rgb="FFFCF6F5"/>
       <color rgb="FFDDA94B"/>
       <color rgb="FF1E4174"/>
-      <color rgb="FFFFDFB9"/>
-      <color rgb="FFA4193D"/>
-      <color rgb="FF6A7BA2"/>
-      <color rgb="FFFFDFDE"/>
-      <color rgb="FFF193E4"/>
-      <color rgb="FFFAFBD5"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3022,26 +2732,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J158"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="2" customWidth="1"/>
+    <col min="2" max="3" width="9.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.875" style="12" customWidth="1"/>
     <col min="9" max="9" width="9.125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -3051,21 +2761,21 @@
       <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>45293</v>
       </c>
@@ -3075,19 +2785,19 @@
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>45293</v>
       </c>
@@ -3097,19 +2807,19 @@
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>45293</v>
       </c>
@@ -3122,15 +2832,15 @@
       <c r="D4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>45293</v>
       </c>
@@ -3140,17 +2850,17 @@
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>45293</v>
       </c>
@@ -3160,17 +2870,17 @@
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>45293</v>
       </c>
@@ -3180,17 +2890,17 @@
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>45293</v>
       </c>
@@ -3203,14 +2913,14 @@
       <c r="D8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>45294</v>
       </c>
@@ -3220,17 +2930,17 @@
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>45294</v>
       </c>
@@ -3240,17 +2950,17 @@
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>45294</v>
       </c>
@@ -3260,17 +2970,17 @@
       <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>45294</v>
       </c>
@@ -3280,17 +2990,17 @@
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>45294</v>
       </c>
@@ -3300,17 +3010,17 @@
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>45294</v>
       </c>
@@ -3320,17 +3030,17 @@
       <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>45294</v>
       </c>
@@ -3340,17 +3050,17 @@
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>45294</v>
       </c>
@@ -3360,17 +3070,17 @@
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>45294</v>
       </c>
@@ -3380,17 +3090,17 @@
       <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>45294</v>
       </c>
@@ -3400,17 +3110,17 @@
       <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>45295</v>
       </c>
@@ -3420,17 +3130,17 @@
       <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="E19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>45295</v>
       </c>
@@ -3440,17 +3150,17 @@
       <c r="C20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="E20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>45295</v>
       </c>
@@ -3460,17 +3170,17 @@
       <c r="C21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="E21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>45295</v>
       </c>
@@ -3480,17 +3190,17 @@
       <c r="C22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="E22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>45295</v>
       </c>
@@ -3500,17 +3210,17 @@
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="2" t="s">
+      <c r="E23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>45295</v>
       </c>
@@ -3520,17 +3230,17 @@
       <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="E24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>45295</v>
       </c>
@@ -3540,17 +3250,17 @@
       <c r="C25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="2" t="s">
+      <c r="E25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>45295</v>
       </c>
@@ -3560,17 +3270,17 @@
       <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="2" t="s">
+      <c r="E26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>45295</v>
       </c>
@@ -3580,17 +3290,17 @@
       <c r="C27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>45296</v>
       </c>
@@ -3600,17 +3310,17 @@
       <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="E28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>45296</v>
       </c>
@@ -3620,17 +3330,17 @@
       <c r="C29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="2" t="s">
+      <c r="E29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>45296</v>
       </c>
@@ -3640,17 +3350,17 @@
       <c r="C30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="E30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>45296</v>
       </c>
@@ -3660,17 +3370,17 @@
       <c r="C31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="E31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>45296</v>
       </c>
@@ -3680,17 +3390,17 @@
       <c r="C32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="2" t="s">
+      <c r="E32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>45296</v>
       </c>
@@ -3700,17 +3410,17 @@
       <c r="C33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="E33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>45296</v>
       </c>
@@ -3720,17 +3430,17 @@
       <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="2" t="s">
+      <c r="E34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>45296</v>
       </c>
@@ -3740,17 +3450,17 @@
       <c r="C35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="E35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>45323</v>
       </c>
@@ -3760,17 +3470,17 @@
       <c r="C36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="2" t="s">
+      <c r="E36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>45323</v>
       </c>
@@ -3780,17 +3490,17 @@
       <c r="C37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="2" t="s">
+      <c r="E37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>45323</v>
       </c>
@@ -3800,17 +3510,17 @@
       <c r="C38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="2" t="s">
+      <c r="E38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>45323</v>
       </c>
@@ -3820,17 +3530,17 @@
       <c r="C39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="2" t="s">
+      <c r="E39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>45324</v>
       </c>
@@ -3840,17 +3550,17 @@
       <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="2" t="s">
+      <c r="E40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>45324</v>
       </c>
@@ -3860,17 +3570,17 @@
       <c r="C41" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="2" t="s">
+      <c r="E41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>45324</v>
       </c>
@@ -3880,17 +3590,17 @@
       <c r="C42" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="2" t="s">
+      <c r="E42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>45324</v>
       </c>
@@ -3900,17 +3610,17 @@
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="2" t="s">
+      <c r="E43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>45325</v>
       </c>
@@ -3920,17 +3630,17 @@
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="2" t="s">
+      <c r="E44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>45326</v>
       </c>
@@ -3940,17 +3650,17 @@
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="2" t="s">
+      <c r="E45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45326</v>
       </c>
@@ -3960,17 +3670,17 @@
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="2" t="s">
+      <c r="E46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>45326</v>
       </c>
@@ -3980,17 +3690,17 @@
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="2" t="s">
+      <c r="E47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>45352</v>
       </c>
@@ -4000,17 +3710,17 @@
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="2" t="s">
+      <c r="E48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>45352</v>
       </c>
@@ -4020,17 +3730,17 @@
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="2" t="s">
+      <c r="E49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>45353</v>
       </c>
@@ -4040,17 +3750,17 @@
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="2" t="s">
+      <c r="E50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>45353</v>
       </c>
@@ -4060,17 +3770,17 @@
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="2" t="s">
+      <c r="E51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>45353</v>
       </c>
@@ -4080,17 +3790,17 @@
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52" s="2" t="s">
+      <c r="E52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>45353</v>
       </c>
@@ -4100,17 +3810,17 @@
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="2" t="s">
+      <c r="E53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>45353</v>
       </c>
@@ -4120,17 +3830,17 @@
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="2" t="s">
+      <c r="E54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>45353</v>
       </c>
@@ -4140,17 +3850,17 @@
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="2" t="s">
+      <c r="E55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>45353</v>
       </c>
@@ -4160,17 +3870,17 @@
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="2" t="s">
+      <c r="E56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>45354</v>
       </c>
@@ -4180,17 +3890,17 @@
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="2" t="s">
+      <c r="E57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>45354</v>
       </c>
@@ -4200,17 +3910,17 @@
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="2" t="s">
+      <c r="E58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>45354</v>
       </c>
@@ -4220,17 +3930,17 @@
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="2" t="s">
+      <c r="E59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>45354</v>
       </c>
@@ -4240,17 +3950,17 @@
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" s="2" t="s">
+      <c r="E60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>45354</v>
       </c>
@@ -4260,17 +3970,17 @@
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="2" t="s">
+      <c r="E61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>45354</v>
       </c>
@@ -4280,17 +3990,17 @@
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="2" t="s">
+      <c r="E62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>45354</v>
       </c>
@@ -4300,17 +4010,17 @@
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="2" t="s">
+      <c r="E63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>45354</v>
       </c>
@@ -4320,17 +4030,17 @@
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="2" t="s">
+      <c r="E64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>45355</v>
       </c>
@@ -4340,17 +4050,17 @@
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="2" t="s">
+      <c r="E65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>45355</v>
       </c>
@@ -4360,17 +4070,17 @@
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" s="2" t="s">
+      <c r="E66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>45355</v>
       </c>
@@ -4380,17 +4090,17 @@
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="2" t="s">
+      <c r="E67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>45355</v>
       </c>
@@ -4400,17 +4110,17 @@
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="2" t="s">
+      <c r="E68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>45355</v>
       </c>
@@ -4420,17 +4130,17 @@
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" s="2" t="s">
+      <c r="E69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>45355</v>
       </c>
@@ -4440,17 +4150,17 @@
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F70" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>94</v>
       </c>
@@ -4460,17 +4170,17 @@
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" s="2" t="s">
+      <c r="E71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>94</v>
       </c>
@@ -4480,17 +4190,17 @@
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F72" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>94</v>
       </c>
@@ -4500,17 +4210,17 @@
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="F73" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>94</v>
       </c>
@@ -4520,17 +4230,17 @@
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="F74" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>94</v>
       </c>
@@ -4540,17 +4250,17 @@
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F75" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>94</v>
       </c>
@@ -4560,17 +4270,17 @@
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F76" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>94</v>
       </c>
@@ -4580,17 +4290,17 @@
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E77" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="F77" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>94</v>
       </c>
@@ -4600,17 +4310,17 @@
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E78" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="F78" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>94</v>
       </c>
@@ -4620,17 +4330,17 @@
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E79" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="F79" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>45292</v>
       </c>
@@ -4640,7 +4350,7 @@
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="11" t="s">
         <v>104</v>
       </c>
       <c r="E80" s="2" t="s">
@@ -4650,7 +4360,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>45292</v>
       </c>
@@ -4660,7 +4370,7 @@
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="11" t="s">
         <v>105</v>
       </c>
       <c r="E81" s="2" t="s">
@@ -4670,7 +4380,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>45292</v>
       </c>
@@ -4680,7 +4390,7 @@
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="11" t="s">
         <v>106</v>
       </c>
       <c r="E82" s="2" t="s">
@@ -4690,7 +4400,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>45292</v>
       </c>
@@ -4700,7 +4410,7 @@
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="11" t="s">
         <v>107</v>
       </c>
       <c r="E83" s="2" t="s">
@@ -4710,7 +4420,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>45292</v>
       </c>
@@ -4720,7 +4430,7 @@
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="11" t="s">
         <v>108</v>
       </c>
       <c r="E84" s="2" t="s">
@@ -4730,7 +4440,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>45292</v>
       </c>
@@ -4740,14 +4450,15 @@
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="11" t="s">
         <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F85" s="2"/>
+    </row>
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>45293</v>
       </c>
@@ -4757,7 +4468,7 @@
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" s="11" t="s">
         <v>110</v>
       </c>
       <c r="E86" s="2" t="s">
@@ -4767,7 +4478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>45293</v>
       </c>
@@ -4777,7 +4488,7 @@
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="11" t="s">
         <v>111</v>
       </c>
       <c r="E87" s="2" t="s">
@@ -4787,7 +4498,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>45293</v>
       </c>
@@ -4797,7 +4508,7 @@
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="11" t="s">
         <v>112</v>
       </c>
       <c r="E88" s="2" t="s">
@@ -4807,7 +4518,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>45293</v>
       </c>
@@ -4817,7 +4528,7 @@
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="11" t="s">
         <v>113</v>
       </c>
       <c r="E89" s="2" t="s">
@@ -4827,7 +4538,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>45293</v>
       </c>
@@ -4837,14 +4548,15 @@
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="11" t="s">
         <v>114</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F90" s="2"/>
+    </row>
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>45293</v>
       </c>
@@ -4854,14 +4566,15 @@
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="11" t="s">
         <v>115</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F91" s="2"/>
+    </row>
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>45293</v>
       </c>
@@ -4871,14 +4584,15 @@
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="11" t="s">
         <v>116</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F92" s="2"/>
+    </row>
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>45294</v>
       </c>
@@ -4888,7 +4602,7 @@
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="11" t="s">
         <v>117</v>
       </c>
       <c r="E93" s="2" t="s">
@@ -4898,7 +4612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>45294</v>
       </c>
@@ -4908,14 +4622,15 @@
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" s="11" t="s">
         <v>118</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F94" s="2"/>
+    </row>
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>45294</v>
       </c>
@@ -4925,14 +4640,15 @@
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" s="11" t="s">
         <v>119</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F95" s="2"/>
+    </row>
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>45294</v>
       </c>
@@ -4942,14 +4658,15 @@
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" s="11" t="s">
         <v>120</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F96" s="2"/>
+    </row>
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>45294</v>
       </c>
@@ -4959,14 +4676,15 @@
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" s="11" t="s">
         <v>121</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F97" s="2"/>
+    </row>
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>45294</v>
       </c>
@@ -4976,14 +4694,15 @@
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" s="11" t="s">
         <v>122</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F98" s="2"/>
+    </row>
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>45294</v>
       </c>
@@ -4993,14 +4712,15 @@
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="11" t="s">
         <v>123</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F99" s="2"/>
+    </row>
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>45294</v>
       </c>
@@ -5010,14 +4730,15 @@
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" s="11" t="s">
         <v>124</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F100" s="2"/>
+    </row>
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>45295</v>
       </c>
@@ -5027,7 +4748,7 @@
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="11" t="s">
         <v>117</v>
       </c>
       <c r="E101" s="2" t="s">
@@ -5037,7 +4758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>45295</v>
       </c>
@@ -5047,14 +4768,15 @@
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" s="11" t="s">
         <v>125</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F102" s="2"/>
+    </row>
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>45295</v>
       </c>
@@ -5064,14 +4786,15 @@
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="11" t="s">
         <v>126</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F103" s="2"/>
+    </row>
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>45295</v>
       </c>
@@ -5081,14 +4804,15 @@
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" s="11" t="s">
         <v>127</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F104" s="2"/>
+    </row>
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>45295</v>
       </c>
@@ -5098,14 +4822,15 @@
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D105" s="11" t="s">
         <v>128</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F105" s="2"/>
+    </row>
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>45295</v>
       </c>
@@ -5115,14 +4840,15 @@
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" s="11" t="s">
         <v>129</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F106" s="2"/>
+    </row>
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>45295</v>
       </c>
@@ -5132,14 +4858,15 @@
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D107" s="11" t="s">
         <v>130</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F107" s="2"/>
+    </row>
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>45295</v>
       </c>
@@ -5149,14 +4876,15 @@
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" s="11" t="s">
         <v>131</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F108" s="2"/>
+    </row>
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>45295</v>
       </c>
@@ -5166,14 +4894,15 @@
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D109" s="11" t="s">
         <v>132</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F109" s="2"/>
+    </row>
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>45295</v>
       </c>
@@ -5183,14 +4912,15 @@
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D110" s="11" t="s">
         <v>133</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F110" s="2"/>
+    </row>
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>45296</v>
       </c>
@@ -5200,7 +4930,7 @@
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D111" s="11" t="s">
         <v>134</v>
       </c>
       <c r="E111" s="2" t="s">
@@ -5210,7 +4940,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>45296</v>
       </c>
@@ -5220,7 +4950,7 @@
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D112" s="11" t="s">
         <v>135</v>
       </c>
       <c r="E112" s="2" t="s">
@@ -5230,7 +4960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>45296</v>
       </c>
@@ -5240,7 +4970,7 @@
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D113" s="11" t="s">
         <v>136</v>
       </c>
       <c r="E113" s="2" t="s">
@@ -5250,7 +4980,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>45296</v>
       </c>
@@ -5260,7 +4990,7 @@
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D114" s="11" t="s">
         <v>137</v>
       </c>
       <c r="E114" s="2" t="s">
@@ -5270,7 +5000,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>45296</v>
       </c>
@@ -5280,7 +5010,7 @@
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D115" s="11" t="s">
         <v>139</v>
       </c>
       <c r="E115" s="2" t="s">
@@ -5290,7 +5020,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>45296</v>
       </c>
@@ -5300,7 +5030,7 @@
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D116" s="11" t="s">
         <v>140</v>
       </c>
       <c r="E116" s="2" t="s">
@@ -5310,7 +5040,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>45296</v>
       </c>
@@ -5320,7 +5050,7 @@
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D117" s="11" t="s">
         <v>141</v>
       </c>
       <c r="E117" s="2" t="s">
@@ -5330,7 +5060,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>45323</v>
       </c>
@@ -5340,14 +5070,15 @@
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D118" s="11" t="s">
         <v>142</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F118" s="2"/>
+    </row>
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>45324</v>
       </c>
@@ -5357,14 +5088,15 @@
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D119" s="11" t="s">
         <v>143</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F119" s="2"/>
+    </row>
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>45324</v>
       </c>
@@ -5374,14 +5106,15 @@
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D120" s="11" t="s">
         <v>144</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F120" s="2"/>
+    </row>
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>45325</v>
       </c>
@@ -5391,7 +5124,7 @@
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D121" s="11" t="s">
         <v>145</v>
       </c>
       <c r="E121" s="2" t="s">
@@ -5401,7 +5134,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>45325</v>
       </c>
@@ -5411,14 +5144,15 @@
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D122" s="11" t="s">
         <v>146</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F122" s="2"/>
+    </row>
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>45326</v>
       </c>
@@ -5428,7 +5162,7 @@
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="D123" s="11" t="s">
         <v>147</v>
       </c>
       <c r="E123" s="2" t="s">
@@ -5438,7 +5172,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>45326</v>
       </c>
@@ -5448,14 +5182,15 @@
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D124" s="11" t="s">
         <v>148</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F124" s="2"/>
+    </row>
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>45352</v>
       </c>
@@ -5465,7 +5200,7 @@
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="D125" s="11" t="s">
         <v>149</v>
       </c>
       <c r="E125" s="2" t="s">
@@ -5475,7 +5210,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>45352</v>
       </c>
@@ -5485,7 +5220,7 @@
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="D126" s="11" t="s">
         <v>151</v>
       </c>
       <c r="E126" s="2" t="s">
@@ -5495,7 +5230,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>45352</v>
       </c>
@@ -5505,7 +5240,7 @@
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D127" s="11" t="s">
         <v>152</v>
       </c>
       <c r="E127" s="2" t="s">
@@ -5515,7 +5250,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>45352</v>
       </c>
@@ -5525,14 +5260,17 @@
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D128" s="11" t="s">
         <v>153</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F128" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>45353</v>
       </c>
@@ -5542,14 +5280,15 @@
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D129" s="11" t="s">
         <v>154</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F129" s="2"/>
+    </row>
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>45353</v>
       </c>
@@ -5559,7 +5298,7 @@
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D130" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E130" s="2" t="s">
@@ -5569,7 +5308,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>45354</v>
       </c>
@@ -5579,7 +5318,7 @@
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D131" s="11" t="s">
         <v>156</v>
       </c>
       <c r="E131" s="2" t="s">
@@ -5589,7 +5328,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>45354</v>
       </c>
@@ -5599,14 +5338,15 @@
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="D132" s="11" t="s">
         <v>157</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F132" s="2"/>
+    </row>
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>45355</v>
       </c>
@@ -5616,7 +5356,7 @@
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D133" s="11" t="s">
         <v>158</v>
       </c>
       <c r="E133" s="2" t="s">
@@ -5626,7 +5366,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>45355</v>
       </c>
@@ -5636,14 +5376,15 @@
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D134" s="11" t="s">
         <v>159</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F134" s="2"/>
+    </row>
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>45326</v>
       </c>
@@ -5653,14 +5394,17 @@
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="D135" s="11" t="s">
         <v>161</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F135" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>45326</v>
       </c>
@@ -5670,14 +5414,17 @@
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="D136" s="11" t="s">
         <v>162</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F136" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>45352</v>
       </c>
@@ -5687,14 +5434,17 @@
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="D137" s="11" t="s">
         <v>163</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F137" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>45352</v>
       </c>
@@ -5704,14 +5454,17 @@
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="D138" s="11" t="s">
         <v>164</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F138" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>45352</v>
       </c>
@@ -5721,14 +5474,17 @@
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="D139" s="11" t="s">
         <v>165</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F139" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>45353</v>
       </c>
@@ -5738,14 +5494,17 @@
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="D140" s="11" t="s">
         <v>166</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F140" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>45353</v>
       </c>
@@ -5755,14 +5514,17 @@
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D141" s="2" t="s">
+      <c r="D141" s="11" t="s">
         <v>167</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F141" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>45353</v>
       </c>
@@ -5772,14 +5534,17 @@
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="D142" s="11" t="s">
         <v>168</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F142" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>45353</v>
       </c>
@@ -5789,14 +5554,17 @@
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="D143" s="11" t="s">
         <v>169</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F143" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>45353</v>
       </c>
@@ -5806,14 +5574,17 @@
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="D144" s="11" t="s">
         <v>170</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F144" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>45353</v>
       </c>
@@ -5823,14 +5594,17 @@
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D145" s="2" t="s">
+      <c r="D145" s="11" t="s">
         <v>171</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F145" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>45353</v>
       </c>
@@ -5840,14 +5614,17 @@
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="D146" s="11" t="s">
         <v>172</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F146" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>45353</v>
       </c>
@@ -5857,14 +5634,17 @@
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="D147" s="11" t="s">
         <v>173</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F147" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>45353</v>
       </c>
@@ -5874,14 +5654,17 @@
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="D148" s="11" t="s">
         <v>174</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F148" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>45354</v>
       </c>
@@ -5891,14 +5674,17 @@
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="D149" s="11" t="s">
         <v>175</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F149" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>45354</v>
       </c>
@@ -5908,14 +5694,17 @@
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="D150" s="11" t="s">
         <v>176</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F150" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>45354</v>
       </c>
@@ -5925,14 +5714,17 @@
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="D151" s="11" t="s">
         <v>177</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F151" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>45354</v>
       </c>
@@ -5942,14 +5734,17 @@
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D152" s="2" t="s">
+      <c r="D152" s="11" t="s">
         <v>178</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F152" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>45355</v>
       </c>
@@ -5959,14 +5754,17 @@
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="D153" s="11" t="s">
         <v>171</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F153" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>45355</v>
       </c>
@@ -5976,14 +5774,17 @@
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D154" s="2" t="s">
+      <c r="D154" s="11" t="s">
         <v>179</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F154" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>45355</v>
       </c>
@@ -5993,14 +5794,17 @@
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D155" s="2" t="s">
+      <c r="D155" s="11" t="s">
         <v>171</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F155" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>45355</v>
       </c>
@@ -6010,14 +5814,17 @@
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D156" s="2" t="s">
+      <c r="D156" s="11" t="s">
         <v>180</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F156" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>45355</v>
       </c>
@@ -6027,14 +5834,17 @@
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D157" s="2" t="s">
+      <c r="D157" s="11" t="s">
         <v>181</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F157" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>45355</v>
       </c>
@@ -6044,91 +5854,134 @@
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="D158" s="11" t="s">
         <v>182</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="F158" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B159" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B160" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D160" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G160" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G160" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="김다은"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="expression" dxfId="45" priority="18">
+    <cfRule type="expression" dxfId="47" priority="19">
       <formula>(RIGHT(INDEX($A:$A, ROW()), 1)="1")*1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="44" priority="8" operator="containsText" text="김신영">
+    <cfRule type="containsText" dxfId="46" priority="9" operator="containsText" text="김신영">
       <formula>NOT(ISERROR(SEARCH("김신영",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="박지훈">
+    <cfRule type="containsText" dxfId="45" priority="10" operator="containsText" text="박지훈">
       <formula>NOT(ISERROR(SEARCH("박지훈",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="10" operator="containsText" text="김다은">
+    <cfRule type="containsText" dxfId="44" priority="11" operator="containsText" text="김다은">
       <formula>NOT(ISERROR(SEARCH("김다은",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="42" priority="22" operator="containsText" text="취준">
+    <cfRule type="containsText" dxfId="43" priority="23" operator="containsText" text="취준">
       <formula>NOT(ISERROR(SEARCH("취준",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="23" operator="containsText" text="기타">
+    <cfRule type="containsText" dxfId="42" priority="24" operator="containsText" text="기타">
       <formula>NOT(ISERROR(SEARCH("기타",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="24" operator="containsText" text="프로젝트">
+    <cfRule type="containsText" dxfId="41" priority="25" operator="containsText" text="프로젝트">
       <formula>NOT(ISERROR(SEARCH("프로젝트",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="25" operator="containsText" text="공부">
+    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="공부">
       <formula>NOT(ISERROR(SEARCH("공부",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="선형대수">
+    <cfRule type="containsText" dxfId="40" priority="2" operator="containsText" text="Game Programming">
+      <formula>NOT(ISERROR(SEARCH("Game Programming",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="Computer Vision">
+      <formula>NOT(ISERROR(SEARCH("Computer Vision",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="선형대수">
       <formula>NOT(ISERROR(SEARCH("선형대수",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="4" operator="containsText" text="DX">
+    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="DX">
       <formula>NOT(ISERROR(SEARCH("DX",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="5" operator="containsText" text="OS">
+    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="OS">
       <formula>NOT(ISERROR(SEARCH("OS",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="6" operator="containsText" text="PL">
+    <cfRule type="containsText" dxfId="35" priority="7" operator="containsText" text="PL">
       <formula>NOT(ISERROR(SEARCH("PL",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="7" operator="containsText" text="C++">
+    <cfRule type="containsText" dxfId="34" priority="8" operator="containsText" text="C++">
       <formula>NOT(ISERROR(SEARCH("C++",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="11" operator="containsText" text="인공지능">
+    <cfRule type="containsText" dxfId="33" priority="12" operator="containsText" text="인공지능">
       <formula>NOT(ISERROR(SEARCH("인공지능",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="12" operator="containsText" text="NextJS">
+    <cfRule type="containsText" dxfId="32" priority="13" operator="containsText" text="NextJS">
       <formula>NOT(ISERROR(SEARCH("NextJS",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="13" operator="containsText" text="지원 준비">
+    <cfRule type="containsText" dxfId="31" priority="14" operator="containsText" text="지원 준비">
       <formula>NOT(ISERROR(SEARCH("지원 준비",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="14" operator="containsText" text="알고리즘">
+    <cfRule type="containsText" dxfId="30" priority="15" operator="containsText" text="알고리즘">
       <formula>NOT(ISERROR(SEARCH("알고리즘",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="15" operator="containsText" text="네트워크">
+    <cfRule type="containsText" dxfId="29" priority="16" operator="containsText" text="네트워크">
       <formula>NOT(ISERROR(SEARCH("네트워크",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="16" operator="containsText" text="자료구조">
+    <cfRule type="containsText" dxfId="28" priority="17" operator="containsText" text="자료구조">
       <formula>NOT(ISERROR(SEARCH("자료구조",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="17" operator="containsText" text="타입스크립트">
+    <cfRule type="containsText" dxfId="27" priority="18" operator="containsText" text="타입스크립트">
       <formula>NOT(ISERROR(SEARCH("타입스크립트",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="20" operator="containsText" text="기타">
+    <cfRule type="containsText" dxfId="26" priority="21" operator="containsText" text="기타">
       <formula>NOT(ISERROR(SEARCH("기타",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="Computer Vision">
-      <formula>NOT(ISERROR(SEARCH("Computer Vision",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="Game Programming">
-      <formula>NOT(ISERROR(SEARCH("Game Programming",F1)))</formula>
+    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="캡스톤 디자인">
+      <formula>NOT(ISERROR(SEARCH("캡스톤 디자인",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -6146,7 +5999,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/기록/Data.xlsx
+++ b/기록/Data.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr codeName="현재_통합_문___���__"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\CS_study\기록\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86398304-AF0D-4FC2-BC9B-3667DE25BFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A48B8B-A0EC-4E0F-823A-F18181668321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1665" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="전체 한 일" sheetId="1" r:id="rId1"/>
     <sheet name="주간 점검" sheetId="4" r:id="rId2"/>
-    <sheet name="이벤트" sheetId="5" r:id="rId3"/>
+    <sheet name="월 점검" sheetId="6" r:id="rId3"/>
     <sheet name="categories" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'전체 한 일'!$A$1:$G$160</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'전체 한 일'!$A$1:$G$161</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="293">
   <si>
     <t>이름</t>
   </si>
@@ -601,14 +601,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Camera Calibration 과제 완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Beginner C++ GP Tutorial4: Game Loop, Variable scope, Class, Object, velocity and seprating Logic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>캡스톤 디자인</t>
   </si>
   <si>
@@ -632,33 +624,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>주간점검</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>잘한 점</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개선점</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>etc</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>평점</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(컴퓨터비전) Camera Calibration 과제 완료
-(C++ Game Programming) Tutorial 4 완료
-(알고리즘) 3문제: 백준 1234번, 46245번, 134871번
-(매일매일 스터디) 기록표 작성 및 시스템 구축</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3/4일 목표</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -674,10 +643,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>성과 및 배운 점</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>만족도</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -686,38 +651,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>기록할 용기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>뜬금 없이 시작된 파이썬&amp;엑셀 프로젝트, 먼저 해야할 일이나 했으면…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>끝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>김다은</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>서울시 대회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>김다은</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -725,10 +662,6 @@
     <t>주말</t>
   </si>
   <si>
-    <t>야야호호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>요요용</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -737,39 +670,340 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">호호호 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅇㅇㅇㅇ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄴㄴㄴㄴ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅇㄴㄴㅇㄻㅇㅎ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>eadfasd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>adfadsfasd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>adfasdfasdf</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>adfasdgaea</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>eeee</t>
+    <t>a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주말</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월은 다르다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월은 다르다???</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3일점검</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>만족도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/4일 목표</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시 생활체육 대회 (2024-04-07 (일))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>펜싱</t>
+  </si>
+  <si>
+    <t>펜싱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>만족도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>월점검</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>월중</t>
+  </si>
+  <si>
+    <t>월중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>월말</t>
+  </si>
+  <si>
+    <t>월말</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월 월말 목표 내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월 월말 평가 내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 이벤트 공부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김다은</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 이벤트 프로젝트 완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배운 것</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+ 잘했어 - 못했어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>블로그</t>
+  </si>
+  <si>
+    <t>블로그</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑자기 시작된 파이썬 엑셀 대작전
++ 하고 싶은 거 함
+- 하고 싶은 거 함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일본 가족여행 (2024-04-05(금)~2024-04-08(월))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행</t>
+  </si>
+  <si>
+    <t>배운 것</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표 ( 다음 달 || 남은 달 )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>평가 (잘한 점 + 개선할 점)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>월점검 분류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주간점검 분류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코어 JS 1장 독서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>줌 클론코딩 따라하기 (~40분)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLI 실습</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 20056 마법사 상어와 파이어볼</t>
+  </si>
+  <si>
+    <t>백준 20056 마법사 상어와 파이어볼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고리즘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>JS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인 시스템</t>
+  </si>
+  <si>
+    <t>디자인 시스템</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김다은</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4주차 강의 듣기 (MDP &amp; Dynmaic Programming)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스터디 자료 정리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화학습</t>
+  </si>
+  <si>
+    <t>강화학습</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerController.cs 리팩토링</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeyManager 기능 추출 완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>InputManager 기능 추출 중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>줌 클론코딩 따라하기 (~1시간 30분)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다자인 시스템 블로그 글 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터 밑바닥의 비밀 2-1까지 독서 및 1장 정리, 내용 보충</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 sorting / processing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>InputManager 기능 추출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고리즘 2문제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터 시스템</t>
+  </si>
+  <si>
+    <t>컴퓨터 시스템</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>event 기반 input 처리 방식 공부</t>
+  </si>
+  <si>
+    <t>Input - Command 매핑</t>
+  </si>
+  <si>
+    <t>State, Command, event bus 패턴 혼합</t>
+  </si>
+  <si>
+    <t>게임 디자인 패턴</t>
+  </si>
+  <si>
+    <t>게임 디자인 패턴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코어 JS 1장 정리</t>
+  </si>
+  <si>
+    <t>백준 20055 80%</t>
+  </si>
+  <si>
+    <t>지라 세팅</t>
+  </si>
+  <si>
+    <t>줌 클론코딩 따라하기 (~2시간 20분)</t>
+  </si>
+  <si>
+    <t>김신영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character Activity Monitor 기능 추가, BoxCast들 시각화</t>
+  </si>
+  <si>
+    <t>Movement, Envirionment States의 Enter(), Exit() 작성</t>
+  </si>
+  <si>
+    <t>캡스톤 디자인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박지훈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit Controller의 Event Manger 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerController에서 Player State Manager 기능 추출 완료</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -779,7 +1013,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="[$-412]yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;주차&quot;"/>
-    <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="177" formatCode="[$-412]yyyy&quot;년&quot;\ m&quot;월&quot;"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -815,12 +1049,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -834,6 +1062,15 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -940,7 +1177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1014,8 +1251,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1058,8 +1304,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1109,35 +1358,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="13" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1146,11 +1392,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="7" xfId="14" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="14" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="14" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="15">
     <cellStyle name="20% - 강조색1" xfId="1" builtinId="30"/>
     <cellStyle name="20% - 강조색2" xfId="4" builtinId="34"/>
     <cellStyle name="20% - 강조색3" xfId="7" builtinId="38"/>
@@ -1163,10 +1421,57 @@
     <cellStyle name="40% - 강조색6" xfId="12" builtinId="51"/>
     <cellStyle name="60% - 강조색1" xfId="3" builtinId="32"/>
     <cellStyle name="60% - 강조색2" xfId="6" builtinId="36"/>
+    <cellStyle name="제목 2" xfId="14" builtinId="17"/>
     <cellStyle name="제목 3" xfId="13" builtinId="18"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="45">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1392,6 +1697,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1464,17 +1790,29 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFF5F5F5"/>
       <color rgb="FFF9FAEC"/>
       <color rgb="FFF3CDCD"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFCCFFFF"/>
       <color rgb="FFCCFFCC"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFFCCCC"/>
       <color rgb="FFCCECFF"/>
       <color rgb="FFE2B143"/>
@@ -1492,8 +1830,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Category" displayName="Category" ref="A1:A11" totalsRowShown="0">
-  <autoFilter ref="A1:A11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Category" displayName="Category" ref="A1:A5" totalsRowShown="0">
+  <autoFilter ref="A1:A5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category"/>
   </tableColumns>
@@ -1501,9 +1839,29 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{82AC2324-AC26-439C-840D-0684522456F6}" name="월말점검" displayName="월말점검" ref="C1:C7" totalsRowShown="0" dataDxfId="42">
+  <autoFilter ref="C1:C7" xr:uid="{82AC2324-AC26-439C-840D-0684522456F6}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{7C2C7633-ED36-491B-8804-541AD42A559F}" name="월점검" dataDxfId="41"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{A102483C-479C-40A9-B409-C0CBC7FE76B8}" name="월점검" displayName="월점검" ref="K1:K3" totalsRowShown="0">
+  <autoFilter ref="K1:K3" xr:uid="{A102483C-479C-40A9-B409-C0CBC7FE76B8}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{268C4062-2467-4A03-B7EA-82730D4E7969}" name="월점검 분류"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="공부" displayName="공부" ref="B1:B16" totalsRowShown="0">
-  <autoFilter ref="B1:B16" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="공부" displayName="공부" ref="D1:D22" totalsRowShown="0">
+  <autoFilter ref="D1:D22" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="공부"/>
   </tableColumns>
@@ -1512,8 +1870,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="프로젝트" displayName="프로젝트" ref="C1:C11" totalsRowShown="0">
-  <autoFilter ref="C1:C11" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="프로젝트" displayName="프로젝트" ref="E1:E12" totalsRowShown="0">
+  <autoFilter ref="E1:E12" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="프로젝트"/>
   </tableColumns>
@@ -1522,8 +1880,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="취준" displayName="취준" ref="D1:D11" totalsRowShown="0">
-  <autoFilter ref="D1:D11" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="취준" displayName="취준" ref="F1:F12" totalsRowShown="0">
+  <autoFilter ref="F1:F12" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="취준"/>
   </tableColumns>
@@ -1532,8 +1890,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="기타" displayName="기타" ref="E1:E11" totalsRowShown="0">
-  <autoFilter ref="E1:E11" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="기타" displayName="기타" ref="G1:G6" totalsRowShown="0">
+  <autoFilter ref="G1:G6" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="기타"/>
   </tableColumns>
@@ -1542,8 +1900,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="이름" displayName="이름" ref="F1:F11" totalsRowShown="0">
-  <autoFilter ref="F1:F11" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="이름" displayName="이름" ref="H1:H5" totalsRowShown="0">
+  <autoFilter ref="H1:H5" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="이름"/>
   </tableColumns>
@@ -1552,8 +1910,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="분류" displayName="분류" ref="G1:G11" totalsRowShown="0">
-  <autoFilter ref="G1:G11" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="분류" displayName="분류" ref="I1:I3" totalsRowShown="0">
+  <autoFilter ref="I1:I3" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="분류"/>
   </tableColumns>
@@ -1562,22 +1920,22 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5246F1F2-D2E2-4D20-8406-285AC96D5EBA}" name="주간점검" displayName="주간점검" ref="H1:H4" totalsRowShown="0">
-  <autoFilter ref="H1:H4" xr:uid="{5246F1F2-D2E2-4D20-8406-285AC96D5EBA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5246F1F2-D2E2-4D20-8406-285AC96D5EBA}" name="주간점검" displayName="주간점검" ref="J1:J3" totalsRowShown="0">
+  <autoFilter ref="J1:J3" xr:uid="{5246F1F2-D2E2-4D20-8406-285AC96D5EBA}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{33102475-CC8E-4449-BE1A-F2D7B192A681}" name="주간점검"/>
+    <tableColumn id="1" xr3:uid="{33102475-CC8E-4449-BE1A-F2D7B192A681}" name="주간점검 분류"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0975E8DF-4FCE-491A-BCCF-827346112299}" name="평점" displayName="평점" ref="I1:I8" totalsRowShown="0">
-  <autoFilter ref="I1:I8" xr:uid="{0975E8DF-4FCE-491A-BCCF-827346112299}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{29886EBB-6B01-4021-9D35-2788A649A688}" name="작심3일점검" displayName="작심3일점검" ref="B1:B6" totalsRowShown="0" dataDxfId="44">
+  <autoFilter ref="B1:B6" xr:uid="{29886EBB-6B01-4021-9D35-2788A649A688}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{67F8FFDF-8F2F-491C-9CFA-EF9844B32824}" name="평점"/>
+    <tableColumn id="1" xr3:uid="{A105A661-C81D-44D2-B02B-DA88C32BEC9E}" name="3일점검" dataDxfId="43"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1898,10 +2256,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J160"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:J189"/>
   <sheetViews>
-    <sheetView topLeftCell="A146" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D132" sqref="D132"/>
+    <sheetView tabSelected="1" topLeftCell="A174" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D192" sqref="D192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1909,36 +2268,36 @@
     <col min="1" max="1" width="16.875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="27" customWidth="1"/>
-    <col min="6" max="6" width="19.75" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="26" customWidth="1"/>
+    <col min="6" max="6" width="19.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="28" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.875" style="11" customWidth="1"/>
     <col min="9" max="9" width="9.125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="24" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:10" s="23" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="23"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
@@ -1953,10 +2312,10 @@
       <c r="D2" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="27" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="1"/>
@@ -1975,10 +2334,10 @@
       <c r="D3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="28" t="s">
+      <c r="E3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="27" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="1"/>
@@ -1997,10 +2356,10 @@
       <c r="D4" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="27" t="s">
         <v>21</v>
       </c>
       <c r="I4"/>
@@ -2018,10 +2377,10 @@
       <c r="D5" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="27" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2038,10 +2397,10 @@
       <c r="D6" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="27" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2058,10 +2417,10 @@
       <c r="D7" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="27" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2078,10 +2437,10 @@
       <c r="D8" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="27" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2098,10 +2457,10 @@
       <c r="D9" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="27" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2118,156 +2477,156 @@
       <c r="D10" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="27" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>6</v>
+        <v>102</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>14</v>
+        <v>103</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>16</v>
+        <v>104</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="27" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="27" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>16</v>
+        <v>107</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>21</v>
+        <v>228</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -2276,18 +2635,18 @@
         <v>11</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
@@ -2296,18 +2655,18 @@
         <v>11</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="27" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>10</v>
@@ -2316,18 +2675,18 @@
         <v>11</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="27" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>10</v>
@@ -2336,18 +2695,18 @@
         <v>11</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="27" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>10</v>
@@ -2356,18 +2715,18 @@
         <v>11</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>10</v>
@@ -2376,18 +2735,18 @@
         <v>11</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>10</v>
@@ -2396,178 +2755,178 @@
         <v>11</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>28</v>
+        <v>108</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>28</v>
+        <v>109</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>28</v>
+        <v>110</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>35</v>
+        <v>111</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="28" t="s">
-        <v>37</v>
+        <v>112</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="28" t="s">
-        <v>37</v>
+        <v>113</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>37</v>
+        <v>114</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>10</v>
+        <v>229</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="28" t="s">
-        <v>37</v>
+        <v>230</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>10</v>
@@ -2576,18 +2935,18 @@
         <v>11</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="28" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>10</v>
@@ -2596,18 +2955,18 @@
         <v>11</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="27" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>10</v>
@@ -2616,18 +2975,18 @@
         <v>11</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="27" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>10</v>
@@ -2636,18 +2995,18 @@
         <v>11</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="28" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>10</v>
@@ -2656,18 +3015,18 @@
         <v>11</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>10</v>
@@ -2676,18 +3035,18 @@
         <v>11</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>47</v>
+        <v>29</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>10</v>
@@ -2696,18 +3055,18 @@
         <v>11</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="28" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>10</v>
@@ -2716,18 +3075,18 @@
         <v>11</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="28" t="s">
-        <v>14</v>
+        <v>31</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>10</v>
@@ -2736,18 +3095,18 @@
         <v>11</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E41" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="28" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>10</v>
@@ -2756,178 +3115,178 @@
         <v>11</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="28" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="28" t="s">
-        <v>16</v>
+        <v>115</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="28" t="s">
-        <v>16</v>
+        <v>116</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>45323</v>
+        <v>45294</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="28" t="s">
-        <v>55</v>
+        <v>117</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>45323</v>
+        <v>45294</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E46" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="28" t="s">
-        <v>55</v>
+        <v>118</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>45323</v>
+        <v>45294</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E47" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="28" t="s">
-        <v>47</v>
+        <v>119</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>45323</v>
+        <v>45294</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="28" t="s">
-        <v>47</v>
+        <v>120</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>45324</v>
+        <v>45294</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E49" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="28" t="s">
-        <v>35</v>
+        <v>121</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>45324</v>
+        <v>45294</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E50" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="28" t="s">
-        <v>47</v>
+        <v>122</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>45324</v>
+        <v>45295</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>10</v>
@@ -2936,18 +3295,18 @@
         <v>11</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E51" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="28" t="s">
-        <v>47</v>
+        <v>34</v>
+      </c>
+      <c r="E51" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="27" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>45324</v>
+        <v>45295</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>10</v>
@@ -2956,18 +3315,18 @@
         <v>11</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="28" t="s">
-        <v>47</v>
+        <v>36</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>45325</v>
+        <v>45295</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>10</v>
@@ -2976,18 +3335,18 @@
         <v>11</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E53" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F53" s="28" t="s">
-        <v>47</v>
+        <v>38</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="27" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>45326</v>
+        <v>45295</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>10</v>
@@ -2996,18 +3355,18 @@
         <v>11</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E54" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="28" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>45326</v>
+        <v>45295</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>10</v>
@@ -3016,18 +3375,18 @@
         <v>11</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E55" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" s="28" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>45326</v>
+        <v>45295</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>10</v>
@@ -3036,18 +3395,18 @@
         <v>11</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E56" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" s="28" t="s">
-        <v>55</v>
+        <v>41</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="27" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>45352</v>
+        <v>45295</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>10</v>
@@ -3056,18 +3415,18 @@
         <v>11</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E57" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="28" t="s">
-        <v>55</v>
+        <v>42</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="27" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>45352</v>
+        <v>45295</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>10</v>
@@ -3076,18 +3435,18 @@
         <v>11</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E58" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="28" t="s">
-        <v>69</v>
+        <v>43</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="27" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>45353</v>
+        <v>45295</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>10</v>
@@ -3096,218 +3455,218 @@
         <v>11</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E59" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="28" t="s">
-        <v>71</v>
+        <v>44</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>45353</v>
+        <v>45295</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E60" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="28" t="s">
-        <v>55</v>
+        <v>115</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="27" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>45353</v>
+        <v>45295</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E61" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="28" t="s">
-        <v>55</v>
+        <v>123</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" s="27" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>45353</v>
+        <v>45295</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E62" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="28" t="s">
-        <v>75</v>
+        <v>124</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>45353</v>
+        <v>45295</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E63" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" s="28" t="s">
-        <v>14</v>
+        <v>125</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>45353</v>
+        <v>45295</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E64" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" s="28" t="s">
-        <v>14</v>
+        <v>126</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="27" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>45353</v>
+        <v>45295</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E65" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65" s="28" t="s">
-        <v>14</v>
+        <v>127</v>
+      </c>
+      <c r="E65" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="27" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>45354</v>
+        <v>45295</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E66" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" s="28" t="s">
-        <v>71</v>
+        <v>128</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="27" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>45354</v>
+        <v>45295</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E67" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F67" s="28" t="s">
-        <v>71</v>
+        <v>129</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="27" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>45354</v>
+        <v>45295</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E68" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" s="28" t="s">
-        <v>55</v>
+        <v>130</v>
+      </c>
+      <c r="E68" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="27" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>45354</v>
+        <v>45295</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E69" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" s="28" t="s">
-        <v>55</v>
+        <v>131</v>
+      </c>
+      <c r="E69" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="27" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>45354</v>
+        <v>45296</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>10</v>
@@ -3316,18 +3675,18 @@
         <v>11</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E70" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" s="28" t="s">
-        <v>75</v>
+        <v>45</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="27" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>45354</v>
+        <v>45296</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>10</v>
@@ -3336,18 +3695,18 @@
         <v>11</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E71" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71" s="28" t="s">
-        <v>75</v>
+        <v>46</v>
+      </c>
+      <c r="E71" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="27" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>45354</v>
+        <v>45296</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>10</v>
@@ -3356,18 +3715,18 @@
         <v>11</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E72" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="28" t="s">
-        <v>75</v>
+        <v>48</v>
+      </c>
+      <c r="E72" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="27" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>45354</v>
+        <v>45296</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>10</v>
@@ -3376,18 +3735,18 @@
         <v>11</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E73" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E73" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="27" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>45355</v>
+        <v>45296</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>10</v>
@@ -3396,18 +3755,18 @@
         <v>11</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E74" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F74" s="28" t="s">
-        <v>71</v>
+        <v>50</v>
+      </c>
+      <c r="E74" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="27" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>45355</v>
+        <v>45296</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>10</v>
@@ -3416,18 +3775,18 @@
         <v>11</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E75" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F75" s="28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="E75" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>45355</v>
+        <v>45296</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>10</v>
@@ -3436,18 +3795,18 @@
         <v>11</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E76" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" s="28" t="s">
-        <v>90</v>
+        <v>52</v>
+      </c>
+      <c r="E76" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="27" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>45355</v>
+        <v>45296</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>10</v>
@@ -3456,58 +3815,58 @@
         <v>11</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E77" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" s="28" t="s">
-        <v>75</v>
+        <v>53</v>
+      </c>
+      <c r="E77" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="27" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>45355</v>
+        <v>45296</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E78" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F78" s="28" t="s">
-        <v>75</v>
+        <v>132</v>
+      </c>
+      <c r="E78" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="27" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>45355</v>
+        <v>45296</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E79" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" s="28" t="s">
-        <v>21</v>
+        <v>133</v>
+      </c>
+      <c r="E79" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="27" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>45292</v>
+        <v>45296</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>101</v>
@@ -3516,18 +3875,18 @@
         <v>11</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E80" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" s="28" t="s">
-        <v>23</v>
+        <v>134</v>
+      </c>
+      <c r="E80" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="27" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>45292</v>
+        <v>45296</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>101</v>
@@ -3536,18 +3895,18 @@
         <v>11</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E81" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F81" s="28" t="s">
-        <v>23</v>
+        <v>135</v>
+      </c>
+      <c r="E81" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="27" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>45292</v>
+        <v>45296</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>101</v>
@@ -3556,18 +3915,18 @@
         <v>11</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E82" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F82" s="28" t="s">
-        <v>23</v>
+        <v>137</v>
+      </c>
+      <c r="E82" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="27" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>45292</v>
+        <v>45296</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>101</v>
@@ -3576,18 +3935,18 @@
         <v>11</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E83" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="28" t="s">
-        <v>16</v>
+        <v>138</v>
+      </c>
+      <c r="E83" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="27" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>45292</v>
+        <v>45296</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>101</v>
@@ -3596,95 +3955,98 @@
         <v>11</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E84" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F84" s="28" t="s">
-        <v>16</v>
+        <v>139</v>
+      </c>
+      <c r="E84" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" s="27" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E85" s="27" t="s">
-        <v>9</v>
+        <v>54</v>
+      </c>
+      <c r="E85" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="27" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>45293</v>
+        <v>45323</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E86" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" s="28" t="s">
-        <v>6</v>
+        <v>56</v>
+      </c>
+      <c r="E86" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="27" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>45293</v>
+        <v>45323</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E87" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F87" s="28" t="s">
-        <v>23</v>
+        <v>57</v>
+      </c>
+      <c r="E87" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="27" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>45293</v>
+        <v>45323</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E88" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F88" s="28" t="s">
-        <v>23</v>
+        <v>58</v>
+      </c>
+      <c r="E88" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="27" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>45293</v>
+        <v>45323</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>101</v>
@@ -3693,89 +4055,98 @@
         <v>11</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E89" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" s="28" t="s">
-        <v>23</v>
+        <v>140</v>
+      </c>
+      <c r="E89" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" s="27" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>45293</v>
+        <v>45324</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E90" s="27" t="s">
-        <v>8</v>
+        <v>59</v>
+      </c>
+      <c r="E90" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="27" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>45293</v>
+        <v>45324</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E91" s="27" t="s">
-        <v>9</v>
+        <v>60</v>
+      </c>
+      <c r="E91" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="27" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>45293</v>
+        <v>45324</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E92" s="27" t="s">
-        <v>9</v>
+        <v>61</v>
+      </c>
+      <c r="E92" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" s="27" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>45294</v>
+        <v>45324</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E93" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F93" s="28" t="s">
-        <v>6</v>
+        <v>62</v>
+      </c>
+      <c r="E93" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" s="27" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>45294</v>
+        <v>45324</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>101</v>
@@ -3784,15 +4155,18 @@
         <v>11</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E94" s="27" t="s">
-        <v>6</v>
+        <v>141</v>
+      </c>
+      <c r="E94" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="27" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>45294</v>
+        <v>45324</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>101</v>
@@ -3801,32 +4175,38 @@
         <v>11</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E95" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="E95" s="26" t="s">
         <v>9</v>
+      </c>
+      <c r="F95" s="27" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>45294</v>
+        <v>45325</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E96" s="27" t="s">
-        <v>9</v>
+        <v>63</v>
+      </c>
+      <c r="E96" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" s="27" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>45294</v>
+        <v>45325</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>101</v>
@@ -3835,15 +4215,18 @@
         <v>11</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E97" s="27" t="s">
-        <v>9</v>
+        <v>143</v>
+      </c>
+      <c r="E97" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" s="27" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>45294</v>
+        <v>45325</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>101</v>
@@ -3852,69 +4235,78 @@
         <v>11</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E98" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="E98" s="26" t="s">
         <v>9</v>
+      </c>
+      <c r="F98" s="27" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>45294</v>
+        <v>45326</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E99" s="27" t="s">
-        <v>9</v>
+        <v>64</v>
+      </c>
+      <c r="E99" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" s="27" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>45294</v>
+        <v>45326</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E100" s="27" t="s">
-        <v>9</v>
+        <v>65</v>
+      </c>
+      <c r="E100" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="27" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>45295</v>
+        <v>45326</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E101" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" s="28" t="s">
-        <v>6</v>
+        <v>66</v>
+      </c>
+      <c r="E101" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="27" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>45295</v>
+        <v>45326</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>101</v>
@@ -3923,15 +4315,18 @@
         <v>11</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E102" s="27" t="s">
-        <v>6</v>
+        <v>145</v>
+      </c>
+      <c r="E102" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" s="27" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>45295</v>
+        <v>45326</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>101</v>
@@ -3940,83 +4335,98 @@
         <v>11</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E103" s="27" t="s">
-        <v>9</v>
+        <v>146</v>
+      </c>
+      <c r="E103" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103" s="27" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>45295</v>
+        <v>45326</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="E104" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="E104" s="26" t="s">
         <v>9</v>
+      </c>
+      <c r="F104" s="27" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>45295</v>
+        <v>45326</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="E105" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="E105" s="26" t="s">
         <v>9</v>
+      </c>
+      <c r="F105" s="27" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>45295</v>
+        <v>45352</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E106" s="27" t="s">
-        <v>9</v>
+        <v>67</v>
+      </c>
+      <c r="E106" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F106" s="27" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>45295</v>
+        <v>45352</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E107" s="27" t="s">
-        <v>9</v>
+        <v>68</v>
+      </c>
+      <c r="E107" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107" s="27" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>45295</v>
+        <v>45352</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>101</v>
@@ -4025,15 +4435,18 @@
         <v>11</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E108" s="27" t="s">
-        <v>9</v>
+        <v>147</v>
+      </c>
+      <c r="E108" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" s="27" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>45295</v>
+        <v>45352</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>101</v>
@@ -4042,15 +4455,18 @@
         <v>11</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E109" s="27" t="s">
-        <v>9</v>
+        <v>149</v>
+      </c>
+      <c r="E109" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" s="27" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>45295</v>
+        <v>45352</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>101</v>
@@ -4059,15 +4475,18 @@
         <v>11</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E110" s="27" t="s">
-        <v>9</v>
+        <v>150</v>
+      </c>
+      <c r="E110" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" s="27" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>45296</v>
+        <v>45352</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>101</v>
@@ -4076,209 +4495,218 @@
         <v>11</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E111" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F111" s="28" t="s">
-        <v>23</v>
+        <v>151</v>
+      </c>
+      <c r="E111" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" s="27" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>45296</v>
+        <v>45352</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E112" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F112" s="28" t="s">
-        <v>23</v>
+        <v>161</v>
+      </c>
+      <c r="E112" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" s="27" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>45296</v>
+        <v>45352</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E113" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F113" s="28" t="s">
-        <v>75</v>
+        <v>162</v>
+      </c>
+      <c r="E113" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" s="27" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
-        <v>45296</v>
+        <v>45352</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E114" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F114" s="28" t="s">
-        <v>136</v>
+        <v>163</v>
+      </c>
+      <c r="E114" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" s="27" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
-        <v>45296</v>
+        <v>45353</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="E115" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F115" s="28" t="s">
-        <v>136</v>
+        <v>70</v>
+      </c>
+      <c r="E115" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115" s="27" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
-        <v>45296</v>
+        <v>45353</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E116" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F116" s="28" t="s">
-        <v>136</v>
+        <v>72</v>
+      </c>
+      <c r="E116" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F116" s="27" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
-        <v>45296</v>
+        <v>45353</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E117" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F117" s="28" t="s">
-        <v>28</v>
+        <v>73</v>
+      </c>
+      <c r="E117" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" s="27" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
-        <v>45323</v>
+        <v>45353</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="E118" s="27" t="s">
-        <v>9</v>
+        <v>74</v>
+      </c>
+      <c r="E118" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118" s="27" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
-        <v>45324</v>
+        <v>45353</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E119" s="27" t="s">
-        <v>8</v>
+        <v>76</v>
+      </c>
+      <c r="E119" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119" s="27" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
-        <v>45324</v>
+        <v>45353</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E120" s="27" t="s">
-        <v>9</v>
+        <v>77</v>
+      </c>
+      <c r="E120" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" s="27" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
-        <v>45325</v>
+        <v>45353</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E121" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F121" s="28" t="s">
-        <v>136</v>
+        <v>78</v>
+      </c>
+      <c r="E121" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F121" s="27" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
-        <v>45325</v>
+        <v>45353</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>101</v>
@@ -4287,15 +4715,18 @@
         <v>11</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="E122" s="27" t="s">
-        <v>9</v>
+        <v>152</v>
+      </c>
+      <c r="E122" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" s="27" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
-        <v>45326</v>
+        <v>45353</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>101</v>
@@ -4304,110 +4735,113 @@
         <v>11</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E123" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F123" s="28" t="s">
-        <v>136</v>
+        <v>153</v>
+      </c>
+      <c r="E123" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F123" s="27" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
-        <v>45326</v>
+        <v>45353</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E124" s="27" t="s">
-        <v>8</v>
+        <v>164</v>
+      </c>
+      <c r="E124" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" s="27" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
-        <v>45352</v>
+        <v>45353</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="E125" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F125" s="28" t="s">
-        <v>148</v>
+        <v>165</v>
+      </c>
+      <c r="E125" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" s="27" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
-        <v>45352</v>
+        <v>45353</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E126" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F126" s="28" t="s">
-        <v>148</v>
+        <v>166</v>
+      </c>
+      <c r="E126" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" s="27" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
-        <v>45352</v>
+        <v>45353</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="E127" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F127" s="28" t="s">
-        <v>148</v>
+        <v>167</v>
+      </c>
+      <c r="E127" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" s="27" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
-        <v>45352</v>
+        <v>45353</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E128" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="E128" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F128" s="28" t="s">
-        <v>188</v>
+      <c r="F128" s="27" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -4415,16 +4849,19 @@
         <v>45353</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E129" s="27" t="s">
-        <v>8</v>
+        <v>169</v>
+      </c>
+      <c r="E129" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F129" s="27" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -4432,258 +4869,264 @@
         <v>45353</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E130" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F130" s="28" t="s">
-        <v>28</v>
+        <v>170</v>
+      </c>
+      <c r="E130" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" s="27" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
-        <v>45354</v>
+        <v>45353</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E131" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F131" s="28" t="s">
-        <v>75</v>
+        <v>171</v>
+      </c>
+      <c r="E131" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" s="27" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
-        <v>45354</v>
+        <v>45353</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="E132" s="27" t="s">
-        <v>8</v>
+        <v>172</v>
+      </c>
+      <c r="E132" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" s="27" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
-        <v>45355</v>
+        <v>45354</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E133" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F133" s="28" t="s">
-        <v>75</v>
+        <v>79</v>
+      </c>
+      <c r="E133" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F133" s="27" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
-        <v>45355</v>
+        <v>45354</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E134" s="27" t="s">
-        <v>9</v>
+        <v>80</v>
+      </c>
+      <c r="E134" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F134" s="27" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
-        <v>45326</v>
+        <v>45354</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="E135" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F135" s="28" t="s">
-        <v>189</v>
+        <v>81</v>
+      </c>
+      <c r="E135" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" s="27" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
-        <v>45326</v>
+        <v>45354</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="E136" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F136" s="28" t="s">
-        <v>189</v>
+        <v>82</v>
+      </c>
+      <c r="E136" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F136" s="27" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
-        <v>45352</v>
+        <v>45354</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E137" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F137" s="28" t="s">
-        <v>189</v>
+        <v>83</v>
+      </c>
+      <c r="E137" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F137" s="27" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
-        <v>45352</v>
+        <v>45354</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="E138" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F138" s="28" t="s">
-        <v>189</v>
+        <v>84</v>
+      </c>
+      <c r="E138" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F138" s="27" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
-        <v>45352</v>
+        <v>45354</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="E139" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F139" s="28" t="s">
-        <v>189</v>
+        <v>85</v>
+      </c>
+      <c r="E139" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F139" s="27" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
-        <v>45353</v>
+        <v>45354</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="E140" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F140" s="28" t="s">
-        <v>189</v>
+        <v>86</v>
+      </c>
+      <c r="E140" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F140" s="27" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
-        <v>45353</v>
+        <v>45354</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="E141" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F141" s="28" t="s">
-        <v>189</v>
+        <v>154</v>
+      </c>
+      <c r="E141" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F141" s="27" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
-        <v>45353</v>
+        <v>45354</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E142" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F142" s="28" t="s">
-        <v>189</v>
+        <v>155</v>
+      </c>
+      <c r="E142" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F142" s="27" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
-        <v>45353</v>
+        <v>45354</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>158</v>
@@ -4692,18 +5135,18 @@
         <v>11</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="E143" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="E143" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F143" s="28" t="s">
-        <v>189</v>
+      <c r="F143" s="27" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
-        <v>45353</v>
+        <v>45354</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>158</v>
@@ -4712,18 +5155,18 @@
         <v>11</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E144" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="E144" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F144" s="28" t="s">
-        <v>189</v>
+      <c r="F144" s="27" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
-        <v>45353</v>
+        <v>45354</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>158</v>
@@ -4732,18 +5175,18 @@
         <v>11</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E145" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E145" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F145" s="28" t="s">
-        <v>189</v>
+      <c r="F145" s="27" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
-        <v>45353</v>
+        <v>45354</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>158</v>
@@ -4752,133 +5195,133 @@
         <v>11</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="E146" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="E146" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F146" s="28" t="s">
-        <v>189</v>
+      <c r="F146" s="27" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
-        <v>45353</v>
+        <v>45355</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="E147" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F147" s="28" t="s">
-        <v>189</v>
+        <v>87</v>
+      </c>
+      <c r="E147" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F147" s="27" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
-        <v>45353</v>
+        <v>45355</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="E148" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F148" s="28" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="E148" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F148" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
-        <v>45354</v>
+        <v>45355</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E149" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F149" s="28" t="s">
-        <v>189</v>
+        <v>89</v>
+      </c>
+      <c r="E149" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F149" s="27" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
-        <v>45354</v>
+        <v>45355</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="E150" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F150" s="28" t="s">
-        <v>189</v>
+        <v>91</v>
+      </c>
+      <c r="E150" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F150" s="27" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
-        <v>45354</v>
+        <v>45355</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E151" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F151" s="28" t="s">
-        <v>189</v>
+        <v>83</v>
+      </c>
+      <c r="E151" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F151" s="27" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
-        <v>45354</v>
+        <v>45355</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E152" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E152" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F152" s="28" t="s">
-        <v>189</v>
+      <c r="F152" s="27" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -4886,19 +5329,19 @@
         <v>45355</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E153" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F153" s="28" t="s">
-        <v>189</v>
+        <v>156</v>
+      </c>
+      <c r="E153" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F153" s="27" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -4906,19 +5349,19 @@
         <v>45355</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E154" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E154" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F154" s="28" t="s">
-        <v>189</v>
+      <c r="F154" s="27" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -4934,11 +5377,11 @@
       <c r="D155" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="E155" s="27" t="s">
+      <c r="E155" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F155" s="28" t="s">
-        <v>189</v>
+      <c r="F155" s="27" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -4952,13 +5395,13 @@
         <v>11</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="E156" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="E156" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F156" s="28" t="s">
-        <v>189</v>
+      <c r="F156" s="27" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -4972,13 +5415,13 @@
         <v>11</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="E157" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E157" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F157" s="28" t="s">
-        <v>189</v>
+      <c r="F157" s="27" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -4992,163 +5435,748 @@
         <v>11</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="E158" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="E158" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F158" s="28" t="s">
-        <v>189</v>
+      <c r="F158" s="27" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E159" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F159" s="27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D160" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E160" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F160" s="27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="2">
         <v>45383</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D159" s="10" t="s">
+      <c r="B161" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D161" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="E161" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F161" s="27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D162" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E162" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F162" s="27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D163" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="E163" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F163" s="27" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D164" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="E164" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="F164" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="E159" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F159" s="28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A160" s="2">
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="2">
         <v>45383</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D160" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="E160" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F160" s="28" t="s">
-        <v>90</v>
+      <c r="B165" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D165" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E165" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="F165" s="27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D166" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E166" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F166" s="27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D167" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="E167" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F167" s="27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D168" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="E168" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F168" s="27" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D169" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E169" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F169" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D170" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E170" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F170" s="27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D171" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E171" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F171" s="27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D172" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="E172" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F172" s="27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D173" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="E173" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F173" s="27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D174" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="E174" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F174" s="27" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D175" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E175" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F175" s="27" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D176" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="E176" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F176" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D177" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="E177" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F177" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D178" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="E178" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F178" s="27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D179" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E179" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F179" s="27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D180" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="E180" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F180" s="27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D181" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E181" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F181" s="27" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D182" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="E182" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F182" s="27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D183" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="E183" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F183" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D184" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="E184" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="F184" s="27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D185" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="E185" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="F185" s="27" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D186" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="E186" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="F186" s="27" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D187" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="E187" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="F187" s="27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D188" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="E188" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="F188" s="27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D189" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="E189" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="F189" s="27" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G160" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G160">
-      <sortCondition ref="A1:A160"/>
+  <autoFilter ref="A1:G161" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G162">
+      <sortCondition ref="A1:A161"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="expression" dxfId="33" priority="1">
+    <cfRule type="expression" dxfId="40" priority="2">
       <formula>IF(RIGHT(TEXT(A1,"[$-ko-KR]yyyy""년"" mm""월"" d""주차"""),3)="5주차",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="2">
+    <cfRule type="expression" dxfId="39" priority="3">
       <formula>IF(RIGHT(TEXT(A1,"[$-ko-KR]yyyy""년"" mm""월"" d""주차"""),3)="4주차",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="3">
+    <cfRule type="expression" dxfId="38" priority="4">
       <formula>IF(RIGHT(TEXT(A1,"[$-ko-KR]yyyy""년"" mm""월"" d""주차"""),3)="3주차",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="4">
+    <cfRule type="expression" dxfId="37" priority="5">
       <formula>IF(RIGHT(TEXT(A1,"[$-ko-KR]yyyy""년"" mm""월"" d""주차"""),3)="2주차",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="23">
+    <cfRule type="expression" dxfId="36" priority="24">
       <formula>IF(RIGHT(TEXT(A1,"[$-ko-KR]yyyy""년"" mm""월"" d""주차"""),3)="1주차",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="28" priority="13" operator="containsText" text="김신영">
+    <cfRule type="containsText" dxfId="35" priority="14" operator="containsText" text="김신영">
       <formula>NOT(ISERROR(SEARCH("김신영",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="14" operator="containsText" text="박지훈">
+    <cfRule type="containsText" dxfId="34" priority="15" operator="containsText" text="박지훈">
       <formula>NOT(ISERROR(SEARCH("박지훈",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="15" operator="containsText" text="김다은">
+    <cfRule type="containsText" dxfId="33" priority="16" operator="containsText" text="김다은">
       <formula>NOT(ISERROR(SEARCH("김다은",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="containsText" dxfId="32" priority="1" operator="containsText" text="이벤트">
+      <formula>NOT(ISERROR(SEARCH("이벤트",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="취준">
+    <cfRule type="containsText" dxfId="31" priority="28" operator="containsText" text="취준">
       <formula>NOT(ISERROR(SEARCH("취준",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="기타">
+    <cfRule type="containsText" dxfId="30" priority="29" operator="containsText" text="기타">
       <formula>NOT(ISERROR(SEARCH("기타",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="29" operator="containsText" text="프로젝트">
+    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="프로젝트">
       <formula>NOT(ISERROR(SEARCH("프로젝트",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="30" operator="containsText" text="공부">
+    <cfRule type="containsText" dxfId="28" priority="31" operator="containsText" text="공부">
       <formula>NOT(ISERROR(SEARCH("공부",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="캡스톤 디자인">
+    <cfRule type="containsText" dxfId="27" priority="6" operator="containsText" text="캡스톤 디자인">
       <formula>NOT(ISERROR(SEARCH("캡스톤 디자인",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="Game Programming">
+    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="Game Programming">
       <formula>NOT(ISERROR(SEARCH("Game Programming",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="Computer Vision">
+    <cfRule type="containsText" dxfId="25" priority="8" operator="containsText" text="Computer Vision">
       <formula>NOT(ISERROR(SEARCH("Computer Vision",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="8" operator="containsText" text="선형대수">
+    <cfRule type="containsText" dxfId="24" priority="9" operator="containsText" text="선형대수">
       <formula>NOT(ISERROR(SEARCH("선형대수",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="DX">
+    <cfRule type="containsText" dxfId="23" priority="10" operator="containsText" text="DX">
       <formula>NOT(ISERROR(SEARCH("DX",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="10" operator="containsText" text="OS">
+    <cfRule type="containsText" dxfId="22" priority="11" operator="containsText" text="OS">
       <formula>NOT(ISERROR(SEARCH("OS",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="11" operator="containsText" text="PL">
+    <cfRule type="containsText" dxfId="21" priority="12" operator="containsText" text="PL">
       <formula>NOT(ISERROR(SEARCH("PL",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="12" operator="containsText" text="C++">
+    <cfRule type="containsText" dxfId="20" priority="13" operator="containsText" text="C++">
       <formula>NOT(ISERROR(SEARCH("C++",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="인공지능">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="인공지능">
       <formula>NOT(ISERROR(SEARCH("인공지능",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="NextJS">
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="NextJS">
       <formula>NOT(ISERROR(SEARCH("NextJS",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="18" operator="containsText" text="지원 준비">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="지원 준비">
       <formula>NOT(ISERROR(SEARCH("지원 준비",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="알고리즘">
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="알고리즘">
       <formula>NOT(ISERROR(SEARCH("알고리즘",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="20" operator="containsText" text="네트워크">
+    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="네트워크">
       <formula>NOT(ISERROR(SEARCH("네트워크",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="21" operator="containsText" text="자료구조">
+    <cfRule type="containsText" dxfId="14" priority="22" operator="containsText" text="자료구조">
       <formula>NOT(ISERROR(SEARCH("자료구조",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="22" operator="containsText" text="타입스크립트">
+    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="타입스크립트">
       <formula>NOT(ISERROR(SEARCH("타입스크립트",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="25" operator="containsText" text="기타">
+    <cfRule type="containsText" dxfId="12" priority="26" operator="containsText" text="기타">
       <formula>NOT(ISERROR(SEARCH("기타",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I4:J4 B2:B1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>INDIRECT("이름")</formula1>
+    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>INDIRECT("Category")</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>INDIRECT("분류")</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576 I4:J4" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1>INDIRECT("이름")</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>INDIRECT( INDIRECT("E"&amp;ROW()))</formula1>
@@ -5161,10 +6189,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EDBFD4-A13B-49EF-8905-8135139FC172}">
-  <dimension ref="A1:I7"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5172,97 +6201,77 @@
     <col min="1" max="1" width="17" style="12" customWidth="1"/>
     <col min="2" max="2" width="7.125" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="44" style="14" customWidth="1"/>
-    <col min="5" max="5" width="43.5" style="14" customWidth="1"/>
-    <col min="6" max="6" width="22" style="14" customWidth="1"/>
-    <col min="7" max="7" width="25.875" style="14" customWidth="1"/>
-    <col min="8" max="8" width="26" style="14" customWidth="1"/>
-    <col min="9" max="9" width="18.375" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
+    <col min="4" max="4" width="30.375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="31.75" style="14" customWidth="1"/>
+    <col min="6" max="6" width="8" style="14" customWidth="1"/>
+    <col min="7" max="7" width="18.375" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="13" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="13" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>45383</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="H2" s="13">
+        <v>238</v>
+      </c>
+      <c r="F2" s="13">
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>45383</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="H3" s="14">
+        <v>203</v>
+      </c>
+      <c r="F3" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>45292</v>
       </c>
@@ -5270,127 +6279,63 @@
         <v>10</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="H4" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+      <c r="F4" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>45292</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="H5" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
-        <v>45293</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="H6" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
-        <v>45293</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="H7" s="14">
+        <v>205</v>
+      </c>
+      <c r="F5" s="14">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>IF(RIGHT(TEXT(A1,"[$-ko-KR]yyyy""년"" mm""월"" d""주차"""),3)="5주차",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>IF(RIGHT(TEXT(A1,"[$-ko-KR]yyyy""년"" mm""월"" d""주차"""),3)="4주차",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>IF(RIGHT(TEXT(A1,"[$-ko-KR]yyyy""년"" mm""월"" d""주차"""),3)="3주차",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>IF(RIGHT(TEXT(A1,"[$-ko-KR]yyyy""년"" mm""월"" d""주차"""),3)="2주차",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="10">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>IF(RIGHT(TEXT(A1,"[$-ko-KR]yyyy""년"" mm""월"" d""주차"""),3)="1주차",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="김다은">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="김다은">
       <formula>NOT(ISERROR(SEARCH("김다은",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H1048576">
+  <conditionalFormatting sqref="F2:F1048576">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5404,14 +6349,14 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{863BAB52-1F37-445C-85DF-5F5A2DCC5A98}">
       <formula1>INDIRECT("주간점검")</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{F16D5A90-1B25-4F7C-BB62-23717D4D4DD0}">
       <formula1>INDIRECT("이름")</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{4AE40C76-D695-4597-8FEA-AF4ED6A83AC0}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{4AE40C76-D695-4597-8FEA-AF4ED6A83AC0}">
       <formula1>0</formula1>
       <formula2>5</formula2>
     </dataValidation>
@@ -5433,7 +6378,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H2:H1048576</xm:sqref>
+          <xm:sqref>F2:F1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5442,236 +6387,514 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EE5089-4E41-4852-8251-F7E6143802A5}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5361E7-C804-4839-A430-F64E9D511DA1}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="22.625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="17" style="29" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="31.5" style="13" customWidth="1"/>
+    <col min="5" max="5" width="34.25" style="14" customWidth="1"/>
+    <col min="7" max="7" width="38.25" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="C1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29">
+        <v>45383</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="29">
+        <v>45352</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="E1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="30">
-        <v>45389</v>
-      </c>
-      <c r="B2" s="30">
-        <v>45389</v>
-      </c>
-      <c r="C2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D2" t="s">
-        <v>214</v>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="29">
+        <v>45292</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="29">
+        <v>45292</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="29">
+        <v>45292</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="29">
+        <v>45352</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F7">
+        <v>2.5</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>IF(RIGHT(TEXT(A1,"[$-ko-KR]yyyy""년"" mm""월"" d""주차"""),3)="5주차",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>IF(RIGHT(TEXT(A1,"[$-ko-KR]yyyy""년"" mm""월"" d""주차"""),3)="4주차",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>IF(RIGHT(TEXT(A1,"[$-ko-KR]yyyy""년"" mm""월"" d""주차"""),3)="3주차",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>IF(RIGHT(TEXT(A1,"[$-ko-KR]yyyy""년"" mm""월"" d""주차"""),3)="2주차",TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="8">
+      <formula>IF(RIGHT(TEXT(A1,"[$-ko-KR]yyyy""년"" mm""월"" d""주차"""),3)="1주차",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1 B1:D1048576">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="김다은">
+      <formula>NOT(ISERROR(SEARCH("김다은",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFFFC000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BC5F1225-9986-46A7-AFB8-B0351D34F721}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{C87ABD5E-2E18-4781-BA62-C6329A981E50}">
+      <formula1>INDIRECT("이름")</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D1048576" xr:uid="{21E4A745-F180-4BF0-9548-D89CBCFF8E56}">
+      <formula1>INDIRECT("월점검")</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{04C40714-5E8C-44E1-9F36-4CC3FCB54C2F}">
+      <formula1>0</formula1>
+      <formula2>5</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BC5F1225-9986-46A7-AFB8-B0351D34F721}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>5</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F2:F1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I16"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="19.375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="26.125" customWidth="1"/>
+    <col min="1" max="2" width="16.625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="11" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="C1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>246</v>
+      </c>
+      <c r="K1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
+      <c r="B2" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>242</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>234</v>
+      </c>
+      <c r="E2" t="s">
+        <v>234</v>
       </c>
       <c r="F2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H2" t="s">
         <v>101</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>202</v>
-      </c>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>195</v>
+      </c>
+      <c r="K2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
+      <c r="B3" t="s">
+        <v>244</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="D3" t="s">
-        <v>181</v>
+        <v>241</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
       </c>
       <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>217</v>
+      </c>
+      <c r="H3" t="s">
         <v>158</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>182</v>
       </c>
-      <c r="H3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
+      <c r="B4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>184</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+      <c r="G4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
+      <c r="E6" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="G6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D8" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D10" s="9" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D22" s="11" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="9">
+  <tableParts count="11">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -5681,6 +6904,8 @@
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
--- a/기록/Data.xlsx
+++ b/기록/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\CS_study\기록\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A48B8B-A0EC-4E0F-823A-F18181668321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0F3013-93D0-4900-B92F-AA4BC26B9FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="300">
   <si>
     <t>이름</t>
   </si>
@@ -1004,6 +1004,31 @@
   </si>
   <si>
     <t>PlayerController에서 Player State Manager 기능 추출 완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리액트 딥다이브 ~1.4까지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리액트</t>
+  </si>
+  <si>
+    <t>리액트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴더구조 결정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Command Manager 기능 추출, CommandTranslator 작성, UnitController(50%) 작성</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GameManager이외의 Singleton 추출 </t>
+  </si>
+  <si>
+    <t>프로젝트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1860,8 +1885,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="공부" displayName="공부" ref="D1:D22" totalsRowShown="0">
-  <autoFilter ref="D1:D22" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="공부" displayName="공부" ref="D1:D23" totalsRowShown="0">
+  <autoFilter ref="D1:D23" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="공부"/>
   </tableColumns>
@@ -2257,10 +2282,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J189"/>
+  <dimension ref="A1:J193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D192" sqref="D192"/>
+    <sheetView tabSelected="1" topLeftCell="A194" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D215" sqref="D215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6052,7 +6077,7 @@
         <v>289</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="D189" s="10" t="s">
         <v>292</v>
@@ -6062,6 +6087,86 @@
       </c>
       <c r="F189" s="27" t="s">
         <v>184</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D190" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="E190" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F190" s="27" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D191" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="E191" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="F191" s="27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A192" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D192" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="E192" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="F192" s="27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D193" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="E193" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="F193" s="27" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -6623,10 +6728,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6889,6 +6994,11 @@
     <row r="22" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D22" s="11" t="s">
         <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D23" s="11" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/기록/Data.xlsx
+++ b/기록/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\CS_study\기록\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0F3013-93D0-4900-B92F-AA4BC26B9FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCA8015-5A54-42AC-BAC9-742B2F9E37F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="320">
   <si>
     <t>이름</t>
   </si>
@@ -1029,6 +1029,79 @@
   </si>
   <si>
     <t>프로젝트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerActivityMonitor 캐시 최적화</t>
+  </si>
+  <si>
+    <t>Movement State 개편(더 자세하게), ActionCommand 추가 및 연결된 State, Command, Event 재작성, Command Cancel 구현중(50 %)</t>
+  </si>
+  <si>
+    <t>캡스톤 디자인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박지훈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리액트 딥다이브 ~1.5까지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDP, Bellman Euqation, Dynamic Programming 까지 정리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캡스톤 디자인 발표 보강 및 차후 계획 보강</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>번들러 조사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 경사로 문제 풀이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player State 처리 중 생기는 버그들 해결</t>
+  </si>
+  <si>
+    <t>오성혁</t>
+  </si>
+  <si>
+    <t>오성혁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player Controller 리펙토링 완료</t>
+  </si>
+  <si>
+    <t>라우팅 기능 구현 및 navigation 컴포넌트 작업</t>
+  </si>
+  <si>
+    <t>코어 JS 2장 독서 및 정리</t>
+  </si>
+  <si>
+    <t>중간고사 공부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자소서 계기 및 사례 작성하기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2282,10 +2355,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J193"/>
+  <dimension ref="A1:J206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D215" sqref="D215"/>
+    <sheetView tabSelected="1" topLeftCell="B174" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D206" sqref="D206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6154,19 +6227,279 @@
         <v>45383</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>158</v>
+        <v>303</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>11</v>
+        <v>304</v>
       </c>
       <c r="D193" s="10" t="s">
         <v>298</v>
       </c>
       <c r="E193" s="26" t="s">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="F193" s="27" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D194" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="E194" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="F194" s="27" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A195" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D195" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E195" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="F195" s="27" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D196" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="E196" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="F196" s="27" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D197" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="E197" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="F197" s="27" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D198" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="E198" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F198" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D199" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="E199" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F199" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D200" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="E200" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F200" s="27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" s="2">
+        <v>45384</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D201" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="E201" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F201" s="27" t="s">
         <v>186</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" s="2">
+        <v>45384</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D202" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="E202" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F202" s="27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" s="2">
+        <v>45384</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D203" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="E203" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F203" s="27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" s="2">
+        <v>45384</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D204" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="E204" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F204" s="27" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" s="2">
+        <v>45384</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D205" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="E205" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F205" s="27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" s="2">
+        <v>45384</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D206" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="E206" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F206" s="27" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -6730,8 +7063,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6894,6 +7227,9 @@
       </c>
       <c r="G5" t="s">
         <v>236</v>
+      </c>
+      <c r="H5" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
